--- a/paper_load_balancing/csvs/Results SVM Linear Breast.xlsx
+++ b/paper_load_balancing/csvs/Results SVM Linear Breast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27404"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f23227ddfaa79b9/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genar\Proyectos\Paper-Binary-Black-Hole-Algorithm\paper_load_balancing\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{8598FEE3-38A7-433E-A83A-9BF8DDA678C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4831F0C-C43F-44FA-B37C-CE774B4325E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D22B2B1-DC4D-45CE-B161-4C0AEBE5E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Execution times" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -130,6 +133,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,6 +144,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,11 +213,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -221,17 +232,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -284,7 +284,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1800,7 +1800,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2021,7 +2021,7 @@
             <c:numRef>
               <c:f>'Idle times'!$B$2:$B$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>261.09601950000001</c:v>
@@ -2314,7 +2314,7 @@
             <c:numRef>
               <c:f>'Idle times'!$C$2:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>432.68300649999998</c:v>
@@ -2587,7 +2587,7 @@
             <c:numRef>
               <c:f>'Idle times'!$D$2:$D$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>265.18139050000002</c:v>
@@ -2854,7 +2854,7 @@
             <c:numRef>
               <c:f>'Idle times'!$E$2:$E$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>259.10726799999998</c:v>
@@ -3047,7 +3047,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3118,7 +3118,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3149,12 +3149,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Load</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Balancer V1</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Predictions Load Balancer (Normal)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3163,8 +3166,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31775806192487704"/>
-          <c:y val="1.6696488084360649E-2"/>
+          <c:x val="0.16183646244996461"/>
+          <c:y val="2.0870732819333625E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3203,10 +3206,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2869943750903554E-2"/>
-          <c:y val="0.1051895182865985"/>
+          <c:x val="9.7095519056377505E-2"/>
+          <c:y val="0.10149203933198282"/>
           <c:w val="0.74809523708119896"/>
-          <c:h val="0.79305130291767845"/>
+          <c:h val="0.76679189840544404"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -13872,6 +13875,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37696264343543257"/>
+              <c:y val="0.9394752306941927"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13933,6 +13999,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Predicted times (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14070,7 +14191,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14101,12 +14222,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Load</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Balancer Full</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Predictions Load Balancer (Full)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14115,8 +14239,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31775806192487704"/>
-          <c:y val="1.6696488084360649E-2"/>
+          <c:x val="0.16183646244996461"/>
+          <c:y val="2.0870732819333625E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -14127,26 +14251,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -14155,10 +14259,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2869943750903554E-2"/>
-          <c:y val="0.1051895182865985"/>
+          <c:x val="9.7095519056377505E-2"/>
+          <c:y val="0.10149203933198282"/>
           <c:w val="0.74809523708119896"/>
-          <c:h val="0.79305130291767845"/>
+          <c:h val="0.76679189840544404"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -19474,7 +19578,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C22-4E5D-84A8-3FB3207968F2}"/>
+              <c16:uniqueId val="{0000000B-A274-429D-B43D-182F450D49A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24788,7 +24892,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C22-4E5D-84A8-3FB3207968F2}"/>
+              <c16:uniqueId val="{0000000D-A274-429D-B43D-182F450D49A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24824,6 +24928,49 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37696264343543257"/>
+              <c:y val="0.9394752306941927"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -24885,6 +25032,41 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Predicted times (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -24926,13 +25108,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -24977,30 +25152,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -25022,7 +25176,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -25053,12 +25207,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Load</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Balancer Overfitting</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Predictions Load Balancer (Overfitting)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25067,8 +25224,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31775806192487704"/>
-          <c:y val="1.6696488084360649E-2"/>
+          <c:x val="0.16183646244996461"/>
+          <c:y val="2.0870732819333625E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -25079,26 +25236,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -25107,10 +25244,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2869943750903554E-2"/>
-          <c:y val="0.1051895182865985"/>
+          <c:x val="9.7095519056377505E-2"/>
+          <c:y val="0.10149203933198282"/>
           <c:w val="0.74809523708119896"/>
-          <c:h val="0.79305130291767845"/>
+          <c:h val="0.76679189840544404"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -30426,7 +30563,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E075-494E-8AC5-CBF403D7DEA6}"/>
+              <c16:uniqueId val="{0000000B-7C3F-4798-B049-F396C3859444}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -35740,7 +35877,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E075-494E-8AC5-CBF403D7DEA6}"/>
+              <c16:uniqueId val="{0000000D-7C3F-4798-B049-F396C3859444}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -35776,6 +35913,49 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37696264343543257"/>
+              <c:y val="0.9394752306941927"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -35837,6 +36017,41 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Predicted times (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -35878,13 +36093,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -35929,30 +36137,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -36011,1119 +36198,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -37720,13 +36795,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>519792</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>97970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>174171</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>141513</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12807</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37753,16 +36828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>75559</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:rowOff>94449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>24493</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>125184</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>383081</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37791,16 +36866,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>538844</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19852</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>193223</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>59870</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>327374</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>158306</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38033,13 +37108,13 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="7" width="14.85546875" customWidth="1"/>
+    <col min="6" max="7" width="14.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
@@ -38962,19 +38037,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F26">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <conditionalFormatting sqref="B2:G26">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>B2=MIN($B2:$F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K26">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>H2=MIN($H2:$K2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G26">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>G2=MIN($B2:$F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -38990,13 +38060,13 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
@@ -39032,16 +38102,16 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="10">
         <v>261.09601950000001</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>432.68300649999998</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="10">
         <v>265.18139050000002</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="11">
         <v>259.10726799999998</v>
       </c>
       <c r="F2" s="4">
@@ -39061,16 +38131,16 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="11">
         <v>173.71255289999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>154.63094219999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <v>212.55751330000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="11">
         <v>156.9903564</v>
       </c>
       <c r="F3" s="5">
@@ -39090,16 +38160,16 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="11">
         <v>161.9153566</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="11">
         <v>109.68240710000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <v>124.38573030000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <v>122.284285</v>
       </c>
       <c r="F4" s="5">
@@ -39119,16 +38189,16 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="11">
         <v>122.48706060000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>113.0645964</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>110.3100968</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="11">
         <v>100.1501547</v>
       </c>
       <c r="F5" s="5">
@@ -39148,16 +38218,16 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="11">
         <v>105.3678397</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>93.028598470000006</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="11">
         <v>99.491771459999995</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="11">
         <v>120.4978478</v>
       </c>
       <c r="F6" s="5">
@@ -39177,14 +38247,14 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="11">
         <v>95.618897840000002</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="11">
         <v>78.29967499</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
         <v>75.996355530000002</v>
       </c>
       <c r="F7" s="5">
@@ -39202,16 +38272,16 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="11">
         <v>80.465786379999997</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>70.538579380000002</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="11">
         <v>75.016286210000004</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="11">
         <v>66.317389169999998</v>
       </c>
       <c r="F8" s="5">
@@ -39231,16 +38301,16 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="11">
         <v>67.842295489999998</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="11">
         <v>66.258287190000004</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>70.705249230000007</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>65.652668000000006</v>
       </c>
       <c r="F9" s="5">
@@ -39260,16 +38330,16 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="11">
         <v>60.193150039999999</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
         <v>63.299851019999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="11">
         <v>63.672758180000002</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="5">
         <v>29.65320071</v>
       </c>
@@ -39285,16 +38355,16 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="11">
         <v>54.992784819999997</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="11">
         <v>53.071201559999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="11">
         <v>59.24070803</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="11">
         <v>43.253605290000003</v>
       </c>
       <c r="F11" s="5">
@@ -39314,16 +38384,16 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="11">
         <v>51.14523466</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="11">
         <v>46.890311320000002</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="11">
         <v>55.114762229999997</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="11">
         <v>45.28583519</v>
       </c>
       <c r="F12" s="5">
@@ -39343,16 +38413,16 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="11">
         <v>48.648045459999999</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="11">
         <v>44.633834759999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="11">
         <v>48.296384179999997</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="11">
         <v>38.929585850000002</v>
       </c>
       <c r="F13" s="5">
@@ -39372,16 +38442,16 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="11">
         <v>45.097938380000002</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="11">
         <v>41.386599859999997</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="11">
         <v>40.722550390000002</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="11">
         <v>38.052180450000002</v>
       </c>
       <c r="F14" s="5">
@@ -39401,16 +38471,16 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="11">
         <v>40.503064629999997</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="11">
         <v>39.04580816</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="11">
         <v>37.558601699999997</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5">
         <v>16.911614140000001</v>
       </c>
@@ -39426,16 +38496,16 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="11">
         <v>37.359337969999999</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="11">
         <v>70.886896770000007</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="11">
         <v>34.872980750000004</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="11">
         <v>32.779562869999999</v>
       </c>
       <c r="F16" s="5">
@@ -39455,16 +38525,16 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="11">
         <v>35.468981820000003</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="11">
         <v>32.791361889999997</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="11">
         <v>36.247402829999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="11">
         <v>29.809252180000001</v>
       </c>
       <c r="F17" s="5">
@@ -39484,16 +38554,16 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="11">
         <v>36.19497879</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="11">
         <v>31.03725433</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="11">
         <v>31.752447610000001</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="11">
         <v>69.240269740000002</v>
       </c>
       <c r="F18" s="5">
@@ -39513,16 +38583,16 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="11">
         <v>33.388106659999998</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="11">
         <v>30.502800539999999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="11">
         <v>30.85613553</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="11">
         <v>25.95514099</v>
       </c>
       <c r="F19" s="5">
@@ -39542,16 +38612,16 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="11">
         <v>36.799523190000002</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="11">
         <v>28.753180109999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="11">
         <v>79.296554720000003</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="11">
         <v>25.644727230000001</v>
       </c>
       <c r="F20" s="5">
@@ -39571,14 +38641,14 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="11">
         <v>37.95272319</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="11">
         <v>28.055963680000001</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
         <v>34.189909700000001</v>
       </c>
       <c r="F21" s="5">
@@ -39596,16 +38666,16 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="11">
         <v>32.795796789999997</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="11">
         <v>29.414861200000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="11">
         <v>26.705350800000001</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="11">
         <v>24.538898710000002</v>
       </c>
       <c r="F22" s="5">
@@ -39625,16 +38695,16 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="11">
         <v>29.796478189999998</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="11">
         <v>27.78091057</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="11">
         <v>26.214812040000002</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="11">
         <v>41.464496140000001</v>
       </c>
       <c r="F23" s="5">
@@ -39654,16 +38724,16 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="11">
         <v>38.741968710000002</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="11">
         <v>36.762649140000001</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="11">
         <v>33.655670399999998</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="11">
         <v>32.387695389999998</v>
       </c>
       <c r="F24" s="5">
@@ -39683,16 +38753,16 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="11">
         <v>26.676645910000001</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="11">
         <v>27.682913859999999</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="11">
         <v>28.156979799999998</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="11">
         <v>25.375384650000001</v>
       </c>
       <c r="F25" s="5">
@@ -39712,16 +38782,16 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="11">
         <v>56.152735069999999</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="11">
         <v>59.572640739999997</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="11">
         <v>54.750592470000001</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="11">
         <v>55.824941559999999</v>
       </c>
       <c r="F26" s="5">
@@ -39757,18 +38827,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C96787-A32D-425E-BC13-EC224866C96D}">
   <dimension ref="A1:O877"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" customWidth="1"/>
+    <col min="2" max="2" width="14.3828125" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" customWidth="1"/>
+    <col min="4" max="4" width="14.3828125" customWidth="1"/>
+    <col min="5" max="5" width="16.15234375" customWidth="1"/>
+    <col min="9" max="9" width="23.23046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
